--- a/lab1/lab1.xlsx
+++ b/lab1/lab1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linny\Documents\GitHub\CSC3210\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E16780-EA99-4BE6-A4C1-45984EAF2E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F35CE3A-AC26-4BC5-B9A7-2AF184BABD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="9930" windowWidth="21600" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,22 +265,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -288,6 +281,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,7 +570,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,112 +583,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -697,118 +696,118 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="D12" s="15"/>
+      <c r="G12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="C13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="G13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/lab1/lab1.xlsx
+++ b/lab1/lab1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linny\Documents\GitHub\CSC3210\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F35CE3A-AC26-4BC5-B9A7-2AF184BABD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BEA4AD-D7B2-4628-9613-CD5E66C09833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="9930" windowWidth="21600" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -116,175 +116,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -569,126 +411,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -696,37 +538,37 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="G12" s="15" t="s">
+      <c r="D12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -744,16 +586,16 @@
       <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="H14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -765,19 +607,19 @@
       <c r="G15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="H15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -786,25 +628,25 @@
       <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="H16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="1" t="s">
